--- a/Validation Metrics/data/Example forms.xlsx
+++ b/Validation Metrics/data/Example forms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26405"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stichtingfontys.sharepoint.com/sites/Infoland-Text-to-Case/Gedeelde documenten/General/Documentation/Forms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1F0BF3C-9FCD-45B1-A9F4-0507EEE855AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A23A7044-D769-4D05-8E69-70D7A42FC71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="3720" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="94">
   <si>
     <t>Full story</t>
   </si>
@@ -215,6 +215,48 @@
   </si>
   <si>
     <t>Two of our members require a halal meal, and another requires a vegan meal. Additionally, one of our members is allergic to mushrooms, so we would like to request that mushrooms be excluded from the menu options.</t>
+  </si>
+  <si>
+    <t>Hello my name is Alice. I would like to order lunch on behalf of my boss Bob. The lunch will be for 6 people in total and it will be tomorrow in the boss’ office. The lunch will start in the morning at 10 and it will take about 2 hours. My boss wants to spend at most 100 Euros.</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>100 euros</t>
+  </si>
+  <si>
+    <t>tomorrow</t>
+  </si>
+  <si>
+    <t>boss’ office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bert here, ordering lunch in the canteen. Is it possible to have lunch in an hour, at 12:00? It will be with my entire team of 12. I suppose it won’t take longer than 2 hours, so we will leave around 14:00. Please no peanuts, since a member is allergic. </t>
+  </si>
+  <si>
+    <t>Bert</t>
+  </si>
+  <si>
+    <t>no peanuts</t>
+  </si>
+  <si>
+    <t>Hey so last Friday I was talking to Bob and we discussed that we should have some lunch. We discussed some dates but we didn't really find a common date. Bob said he could do Tomorrow and The Day after but I won't be available then. So instead we will plan it for next Friday. It Will be during The Break in Bob's Office. It will just be for Bob and me so two people. Please bring some sandwiches but no tomatoes for me. We also discussed the pricing. Bob has 10 Euros to spend. I have 15 euros. So in total that is 25 Euros. </t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>25 euros</t>
+  </si>
+  <si>
+    <t>next Friday</t>
+  </si>
+  <si>
+    <t>Bob's Office</t>
+  </si>
+  <si>
+    <t>no tomatoes</t>
   </si>
   <si>
     <t>Is the incident reported by a third party?</t>
@@ -281,7 +323,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,6 +353,17 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -332,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -343,6 +396,10 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -883,10 +940,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4568475-A99B-451C-957E-B70D7460D3D6}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1103,6 +1160,93 @@
       </c>
       <c r="I7" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1134,30 +1278,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -1166,30 +1310,30 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -1200,19 +1344,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D4" s="3">
         <v>0.33333333333333331</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -1223,71 +1367,71 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D7" s="3">
         <v>0.375</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1296,21 +1440,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003695A1D697DE7647BC4C0E20313B1610" ma:contentTypeVersion="2" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="a0a87bef77048b227ceede24ca25e04c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4f29d57b-08d4-4845-bc15-760501bed384" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="423aea61016ec2a4621d181025ca66f3" ns2:_="">
     <xsd:import namespace="4f29d57b-08d4-4845-bc15-760501bed384"/>
@@ -1442,8 +1571,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A21065BA-C84E-4188-A0B2-5912BC7D3054}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{062C2D03-396B-408B-914B-60AFBEF728B5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1451,5 +1595,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{062C2D03-396B-408B-914B-60AFBEF728B5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A21065BA-C84E-4188-A0B2-5912BC7D3054}"/>
 </file>
--- a/Validation Metrics/data/Example forms.xlsx
+++ b/Validation Metrics/data/Example forms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stichtingfontys.sharepoint.com/sites/Infoland-Text-to-Case/Gedeelde documenten/General/Documentation/Forms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A23A7044-D769-4D05-8E69-70D7A42FC71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20608FF4-6213-44FB-8050-84711A59EA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="3720" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="94">
   <si>
     <t>Full story</t>
   </si>
@@ -943,7 +943,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1004,10 +1004,10 @@
       <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
       <c r="H2" t="s">
@@ -1033,10 +1033,10 @@
       <c r="E3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
         <v>11</v>
       </c>
       <c r="H3" t="s">
@@ -1062,10 +1062,10 @@
       <c r="E4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" t="s">
         <v>11</v>
       </c>
       <c r="H4" t="s">
@@ -1091,10 +1091,10 @@
       <c r="E5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" t="s">
         <v>49</v>
       </c>
       <c r="H5" t="s">
@@ -1120,10 +1120,10 @@
       <c r="E6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" t="s">
         <v>53</v>
       </c>
       <c r="H6" t="s">
@@ -1149,10 +1149,10 @@
       <c r="E7" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" t="s">
         <v>58</v>
       </c>
       <c r="H7" t="s">
@@ -1207,11 +1207,11 @@
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.58333333333333337</v>
+      <c r="F9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="H9" t="s">
         <v>54</v>
@@ -1440,6 +1440,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003695A1D697DE7647BC4C0E20313B1610" ma:contentTypeVersion="2" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="a0a87bef77048b227ceede24ca25e04c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4f29d57b-08d4-4845-bc15-760501bed384" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="423aea61016ec2a4621d181025ca66f3" ns2:_="">
     <xsd:import namespace="4f29d57b-08d4-4845-bc15-760501bed384"/>
@@ -1571,29 +1586,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{062C2D03-396B-408B-914B-60AFBEF728B5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E197143-E82F-495B-919B-5612A799206D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E197143-E82F-495B-919B-5612A799206D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A21065BA-C84E-4188-A0B2-5912BC7D3054}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A21065BA-C84E-4188-A0B2-5912BC7D3054}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{062C2D03-396B-408B-914B-60AFBEF728B5}"/>
 </file>
--- a/Validation Metrics/data/Example forms.xlsx
+++ b/Validation Metrics/data/Example forms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stichtingfontys.sharepoint.com/sites/Infoland-Text-to-Case/Gedeelde documenten/General/Documentation/Forms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20608FF4-6213-44FB-8050-84711A59EA00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80EE5036-52E7-4F35-9094-69EAE434E91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="3720" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lunch" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="113">
   <si>
     <t>Full story</t>
   </si>
@@ -257,6 +257,73 @@
   </si>
   <si>
     <t>no tomatoes</t>
+  </si>
+  <si>
+    <t>Hello, this is Sarah from the finance department. I'm looking to organize a team lunch at Vapiano's restaurant. We have 8 people attending, and we're looking to do this next Thursday, April 21st.
+We're hoping to start the lunch at around 1 PM and finish by 2 PM so that everyone can get back to work on time. We have a budget of $20 per person, including taxes and gratuity.
+We're interested in Vapiano's because of the delicious food options and the great reviews we've heard from colleagues. We're hoping to reserve a private area or a large table that can accommodate our group comfortably.
+We do have a couple of dietary restrictions in our group, including one member who is allergic to nuts, so we'd appreciate it if you could provide some options that cater to them.
+Please let us know if you're available on the 21st and if you can accommodate our request. We look forward to enjoying a delicious meal at Vapiano's.
+Here are my contact details in case you need to reach out to me for any further information or questions. Thank you!</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>$20 per person</t>
+  </si>
+  <si>
+    <t>Thursday, April 21st</t>
+  </si>
+  <si>
+    <t>1 PM</t>
+  </si>
+  <si>
+    <t>2 PM</t>
+  </si>
+  <si>
+    <t>Vapiano</t>
+  </si>
+  <si>
+    <t>allergic to nuts</t>
+  </si>
+  <si>
+    <t>Hello, this is Mark from the sales department. I'm looking to organize a team lunch. We have 15 people attending, and we're hoping to do this next Friday, April 22nd.
+We're looking for a sit-down meal and hoping to set a budget of $30 per person. We're hoping to start the lunch at around 12:30 PM and finish by 2 PM.
+We also have a few dietary restrictions in our group, including a vegetarian and a member who is allergic to shellfish, so we'd appreciate it if the lunch can provide some options that can cater to them.</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>$30 per person</t>
+  </si>
+  <si>
+    <t>Friday, April 22nd</t>
+  </si>
+  <si>
+    <t>12:30 PM</t>
+  </si>
+  <si>
+    <t>a vegetarian and a member who is allergic to shellfish</t>
+  </si>
+  <si>
+    <t>Hello, my name is Lisa from the HR department. I'm looking to organize a team lunch. We have 10 people attending, and we're hoping to do this next Wednesday, April 20th.
+We're looking for a buffet-style lunch and hoping to set a budget of $25 per person. We're hoping to start the lunch at around 1 PM and finish by 2 PM.
+We also have a few dietary restrictions in our group, including a vegan and a member who is allergic to dairy, so we'd like if there are some options that can cater to them.
+Thank you, and have a great day!</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>$25 per person</t>
+  </si>
+  <si>
+    <t>Wednesday, April 20th</t>
+  </si>
+  <si>
+    <t>a vegan and a member who is allergic to dairy</t>
   </si>
   <si>
     <t>Is the incident reported by a third party?</t>
@@ -356,13 +423,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="1"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -385,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -396,9 +463,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -940,13 +1010,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4568475-A99B-451C-957E-B70D7460D3D6}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="66.42578125" customWidth="1"/>
     <col min="2" max="2" width="28.140625" customWidth="1"/>
@@ -959,7 +1029,7 @@
     <col min="9" max="9" width="46.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.45">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -988,7 +1058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.45">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1017,7 +1087,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.45">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1046,7 +1116,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.45">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1075,7 +1145,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.45">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1104,7 +1174,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.45">
+    <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
@@ -1133,7 +1203,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.45">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1249,8 +1319,96 @@
         <v>73</v>
       </c>
     </row>
+    <row r="11" spans="1:9" ht="304.5">
+      <c r="A11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="130.5">
+      <c r="A12" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="130.5">
+      <c r="A13" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1258,13 +1416,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D42EB2CD-C0EF-491D-B4DB-3B2C06DD9B46}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="202.7109375" customWidth="1"/>
+    <col min="1" max="1" width="161.85546875" customWidth="1"/>
     <col min="2" max="2" width="35.42578125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
@@ -1278,30 +1436,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -1310,30 +1468,30 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -1344,19 +1502,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D4" s="3">
         <v>0.33333333333333331</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -1367,71 +1525,71 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="D7" s="3">
         <v>0.375</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="G7" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1440,18 +1598,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1587,11 +1745,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E197143-E82F-495B-919B-5612A799206D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A21065BA-C84E-4188-A0B2-5912BC7D3054}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A21065BA-C84E-4188-A0B2-5912BC7D3054}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E197143-E82F-495B-919B-5612A799206D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
